--- a/Output/Ship.data Output - Cycle2 Vertical.xlsx
+++ b/Output/Ship.data Output - Cycle2 Vertical.xlsx
@@ -1063,79 +1063,79 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>23.819339180008</v>
+        <v>23.8213864876138</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0000000270292579705505</v>
+        <v>0.0000000270288221383616</v>
       </c>
       <c r="AW2" t="n">
         <v>2</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.00000000113456152724544</v>
+        <v>0.0000000011342264106042</v>
       </c>
       <c r="AY2" t="n">
         <v>2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.000000000789785886968307</v>
+        <v>0.000000000789666134948755</v>
       </c>
       <c r="BA2" t="n">
         <v>2</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0000000000102017594275448</v>
+        <v>0.0000000000102123514412129</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
       </c>
       <c r="BD2" t="n">
-        <v>41.7199878612577</v>
+        <v>41.713142732762</v>
       </c>
       <c r="BE2" t="n">
         <v>2</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00000000117981060417863</v>
+        <v>0.000000000855175363559967</v>
       </c>
       <c r="BG2" t="n">
         <v>2</v>
       </c>
       <c r="BH2" t="n">
-        <v>26.5699930436715</v>
+        <v>23.8417323411962</v>
       </c>
       <c r="BI2" t="n">
         <v>2</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.000000049644376529346</v>
+        <v>0.0000000266262567101549</v>
       </c>
       <c r="BK2" t="n">
         <v>2</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.00000000183522962625571</v>
+        <v>0.00000000111339554552122</v>
       </c>
       <c r="BM2" t="n">
         <v>2</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00000000117981060417863</v>
+        <v>0.000000000855175363559967</v>
       </c>
       <c r="BO2" t="n">
         <v>2</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0000000000157192147794837</v>
+        <v>0.0000000000110089984545182</v>
       </c>
       <c r="BQ2" t="n">
         <v>2</v>
       </c>
       <c r="BR2" t="n">
-        <v>43.9721128066981</v>
+        <v>40.3581394593921</v>
       </c>
       <c r="BS2" t="n">
         <v>2</v>
@@ -1210,7 +1210,7 @@
         <v>-7.18044758870058</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-80.4524057441981</v>
+        <v>-0.663181861589791</v>
       </c>
     </row>
     <row r="3">
@@ -1350,79 +1350,79 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>23.8179832500791</v>
+        <v>23.8200677762629</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0000000270191880636909</v>
+        <v>0.0000000270187443083868</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.00000000113420085351909</v>
+        <v>0.00000000113385964469865</v>
       </c>
       <c r="AY3" t="n">
         <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.000000000789589107938112</v>
+        <v>0.000000000789467178913083</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0000000000102002853838632</v>
+        <v>0.0000000000102110699527119</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
       </c>
       <c r="BD3" t="n">
-        <v>41.7136791277374</v>
+        <v>41.7067095597351</v>
       </c>
       <c r="BE3" t="n">
         <v>2</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00000000117883655533161</v>
+        <v>0.000000000854942921886852</v>
       </c>
       <c r="BG3" t="n">
         <v>2</v>
       </c>
       <c r="BH3" t="n">
-        <v>26.562631254303</v>
+        <v>23.8404671935074</v>
       </c>
       <c r="BI3" t="n">
         <v>2</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.0000000495828923130963</v>
+        <v>0.0000000266173617628041</v>
       </c>
       <c r="BK3" t="n">
         <v>2</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.00000000183326208234255</v>
+        <v>0.00000000111308195588294</v>
       </c>
       <c r="BM3" t="n">
         <v>2</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.00000000117883655533161</v>
+        <v>0.000000000854942921886852</v>
       </c>
       <c r="BO3" t="n">
         <v>2</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0000000000157069652922798</v>
+        <v>0.0000000000110072192804881</v>
       </c>
       <c r="BQ3" t="n">
         <v>2</v>
       </c>
       <c r="BR3" t="n">
-        <v>43.9613851925388</v>
+        <v>40.3557029079806</v>
       </c>
       <c r="BS3" t="n">
         <v>2</v>
@@ -1497,7 +1497,7 @@
         <v>-7.20113958521396</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-80.2890900833993</v>
+        <v>-0.664881078331024</v>
       </c>
     </row>
     <row r="4">
@@ -1637,79 +1637,79 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>23.8166273201547</v>
+        <v>23.8187490649162</v>
       </c>
       <c r="AU4" t="n">
         <v>2</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0000000270091181568634</v>
+        <v>0.000000027008666478444</v>
       </c>
       <c r="AW4" t="n">
         <v>2</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.00000000113384017979389</v>
+        <v>0.00000000113349287879427</v>
       </c>
       <c r="AY4" t="n">
         <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.000000000789392328908542</v>
+        <v>0.000000000789268222878044</v>
       </c>
       <c r="BA4" t="n">
         <v>2</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0000000000101988113401863</v>
+        <v>0.000000000010209788464215</v>
       </c>
       <c r="BC4" t="n">
         <v>2</v>
       </c>
       <c r="BD4" t="n">
-        <v>41.7073703942371</v>
+        <v>41.7002763867287</v>
       </c>
       <c r="BE4" t="n">
         <v>2</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.00000000117786250648769</v>
+        <v>0.000000000854710480214476</v>
       </c>
       <c r="BG4" t="n">
         <v>2</v>
       </c>
       <c r="BH4" t="n">
-        <v>26.5552694649578</v>
+        <v>23.8392020458225</v>
       </c>
       <c r="BI4" t="n">
         <v>2</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0000000495214080970421</v>
+        <v>0.0000000266084668154817</v>
       </c>
       <c r="BK4" t="n">
         <v>2</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.00000000183129453843565</v>
+        <v>0.00000000111276836624566</v>
       </c>
       <c r="BM4" t="n">
         <v>2</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.00000000117786250648769</v>
+        <v>0.000000000854710480214476</v>
       </c>
       <c r="BO4" t="n">
         <v>2</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0000000000156947158051149</v>
+        <v>0.0000000000110054401064637</v>
       </c>
       <c r="BQ4" t="n">
         <v>2</v>
       </c>
       <c r="BR4" t="n">
-        <v>43.9506575784136</v>
+        <v>40.3532663565768</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>-7.21959150495327</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-80.1009327231325</v>
+        <v>-0.666373774987793</v>
       </c>
     </row>
     <row r="5">
@@ -1924,79 +1924,79 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>23.8155425762073</v>
+        <v>23.8176940958313</v>
       </c>
       <c r="AU5" t="n">
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0000000270010622313438</v>
+        <v>0.000000027000604214432</v>
       </c>
       <c r="AW5" t="n">
         <v>2</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.00000000113355164081167</v>
+        <v>0.00000000113319946606866</v>
       </c>
       <c r="AY5" t="n">
         <v>2</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.00000000078923490568376</v>
+        <v>0.000000000789109058048875</v>
       </c>
       <c r="BA5" t="n">
         <v>2</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0000000000101976321052363</v>
+        <v>0.0000000000102087632734101</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
       </c>
       <c r="BD5" t="n">
-        <v>41.7023234074008</v>
+        <v>41.6951298482868</v>
       </c>
       <c r="BE5" t="n">
         <v>2</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.00000000117708326740698</v>
+        <v>0.000000000854524526875245</v>
       </c>
       <c r="BG5" t="n">
         <v>2</v>
       </c>
       <c r="BH5" t="n">
-        <v>26.5493800334396</v>
+        <v>23.8381899276674</v>
       </c>
       <c r="BI5" t="n">
         <v>2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0000000494722207238468</v>
+        <v>0.0000000266013508575728</v>
       </c>
       <c r="BK5" t="n">
         <v>2</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.00000000182972050329887</v>
+        <v>0.00000000111251749453404</v>
       </c>
       <c r="BM5" t="n">
         <v>2</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.00000000117708326740698</v>
+        <v>0.000000000854524526875245</v>
       </c>
       <c r="BO5" t="n">
         <v>2</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0000000000156849162153129</v>
+        <v>0.0000000000110040167672339</v>
       </c>
       <c r="BQ5" t="n">
         <v>2</v>
       </c>
       <c r="BR5" t="n">
-        <v>43.9420754870521</v>
+        <v>40.3513171154398</v>
       </c>
       <c r="BS5" t="n">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>-7.23250976659324</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-79.9302188311897</v>
+        <v>-0.667398106179771</v>
       </c>
     </row>
     <row r="6">
@@ -2211,79 +2211,79 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>23.8141866462785</v>
+        <v>23.8163753844804</v>
       </c>
       <c r="AU6" t="n">
         <v>2</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0000000269909923244843</v>
+        <v>0.0000000269905263844572</v>
       </c>
       <c r="AW6" t="n">
         <v>2</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.00000000113319096708532</v>
+        <v>0.00000000113283270016311</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.000000000789038126653564</v>
+        <v>0.000000000788910102013203</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0000000000101961580615547</v>
+        <v>0.0000000000102074817849091</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
       </c>
       <c r="BD6" t="n">
-        <v>41.6960146738804</v>
+        <v>41.6886966752599</v>
       </c>
       <c r="BE6" t="n">
         <v>2</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.00000000117610921855996</v>
+        <v>0.00000000085429208520213</v>
       </c>
       <c r="BG6" t="n">
         <v>2</v>
       </c>
       <c r="BH6" t="n">
-        <v>26.542018244071</v>
+        <v>23.8369247799786</v>
       </c>
       <c r="BI6" t="n">
         <v>2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0000000494107365075972</v>
+        <v>0.000000026592455910222</v>
       </c>
       <c r="BK6" t="n">
         <v>2</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.00000000182775295938571</v>
+        <v>0.00000000111220390489576</v>
       </c>
       <c r="BM6" t="n">
         <v>2</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.00000000117610921855996</v>
+        <v>0.00000000085429208520213</v>
       </c>
       <c r="BO6" t="n">
         <v>2</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.000000000015672666728109</v>
+        <v>0.0000000000110022375932038</v>
       </c>
       <c r="BQ6" t="n">
         <v>2</v>
       </c>
       <c r="BR6" t="n">
-        <v>43.9313478728928</v>
+        <v>40.3488805640283</v>
       </c>
       <c r="BS6" t="n">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>-7.25054630852004</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-79.7380478097395</v>
+        <v>-0.66885320306599</v>
       </c>
     </row>
     <row r="7">
@@ -2498,79 +2498,79 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>23.8128307163497</v>
+        <v>23.8150566731295</v>
       </c>
       <c r="AU7" t="n">
         <v>2</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0000000269809224176248</v>
+        <v>0.0000000269804485544823</v>
       </c>
       <c r="AW7" t="n">
         <v>2</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.00000000113283029335898</v>
+        <v>0.00000000113246593425757</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.000000000788841347623368</v>
+        <v>0.000000000788711145977532</v>
       </c>
       <c r="BA7" t="n">
         <v>2</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0000000000101946840178731</v>
+        <v>0.0000000000102062002964081</v>
       </c>
       <c r="BC7" t="n">
         <v>2</v>
       </c>
       <c r="BD7" t="n">
-        <v>41.6897059403601</v>
+        <v>41.682263502233</v>
       </c>
       <c r="BE7" t="n">
         <v>2</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.00000000117513516971294</v>
+        <v>0.000000000854059643529015</v>
       </c>
       <c r="BG7" t="n">
         <v>2</v>
       </c>
       <c r="BH7" t="n">
-        <v>26.5346564547024</v>
+        <v>23.8356596322898</v>
       </c>
       <c r="BI7" t="n">
         <v>2</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0000000493492522913475</v>
+        <v>0.0000000265835609628712</v>
       </c>
       <c r="BK7" t="n">
         <v>2</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.00000000182578541547255</v>
+        <v>0.00000000111189031525748</v>
       </c>
       <c r="BM7" t="n">
         <v>2</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.00000000117513516971294</v>
+        <v>0.000000000854059643529015</v>
       </c>
       <c r="BO7" t="n">
         <v>2</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0000000000156604172409051</v>
+        <v>0.0000000000110004584191737</v>
       </c>
       <c r="BQ7" t="n">
         <v>2</v>
       </c>
       <c r="BR7" t="n">
-        <v>43.9206202587335</v>
+        <v>40.3464440126168</v>
       </c>
       <c r="BS7" t="n">
         <v>2</v>
@@ -2645,7 +2645,7 @@
         <v>-7.26399107035578</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-79.4959177340558</v>
+        <v>-0.669885236397807</v>
       </c>
     </row>
     <row r="8">
@@ -2785,79 +2785,79 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>23.8114747864252</v>
+        <v>23.8137379617827</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0000000269708525107972</v>
+        <v>0.0000000269703707245395</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.00000000113246961963378</v>
+        <v>0.00000000113209916835318</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.000000000788644568593798</v>
+        <v>0.000000000788512189942493</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0000000000101932099741961</v>
+        <v>0.0000000000102049188079112</v>
       </c>
       <c r="BC8" t="n">
         <v>2</v>
       </c>
       <c r="BD8" t="n">
-        <v>41.6833972068598</v>
+        <v>41.6758303292266</v>
       </c>
       <c r="BE8" t="n">
         <v>2</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.00000000117416112086901</v>
+        <v>0.000000000853827201856639</v>
       </c>
       <c r="BG8" t="n">
         <v>2</v>
       </c>
       <c r="BH8" t="n">
-        <v>26.5272946653573</v>
+        <v>23.8343944846049</v>
       </c>
       <c r="BI8" t="n">
         <v>2</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0000000492877680752932</v>
+        <v>0.0000000265746660155488</v>
       </c>
       <c r="BK8" t="n">
         <v>2</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.00000000182381787156565</v>
+        <v>0.00000000111157672562019</v>
       </c>
       <c r="BM8" t="n">
         <v>2</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.00000000117416112086901</v>
+        <v>0.000000000853827201856639</v>
       </c>
       <c r="BO8" t="n">
         <v>2</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0000000000156481677537402</v>
+        <v>0.0000000000109986792451493</v>
       </c>
       <c r="BQ8" t="n">
         <v>2</v>
       </c>
       <c r="BR8" t="n">
-        <v>43.9098926446083</v>
+        <v>40.344007461213</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
@@ -2932,7 +2932,7 @@
         <v>-7.2827372574473</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-79.3123021524527</v>
+        <v>-0.671406666041889</v>
       </c>
     </row>
     <row r="9">
@@ -3072,79 +3072,79 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>23.8103900424778</v>
+        <v>23.8126829926978</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0000000269627965852776</v>
+        <v>0.0000000269623084605276</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.00000000113218108065156</v>
+        <v>0.00000000113180575562758</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.000000000788487145369016</v>
+        <v>0.000000000788353025113323</v>
       </c>
       <c r="BA9" t="n">
         <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0000000000101920307392461</v>
+        <v>0.0000000000102038936171063</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
       </c>
       <c r="BD9" t="n">
-        <v>41.6783502200234</v>
+        <v>41.6706837907847</v>
       </c>
       <c r="BE9" t="n">
         <v>2</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0000000011733818817883</v>
+        <v>0.000000000853641248517408</v>
       </c>
       <c r="BG9" t="n">
         <v>2</v>
       </c>
       <c r="BH9" t="n">
-        <v>26.521405233839</v>
+        <v>23.8333823664498</v>
       </c>
       <c r="BI9" t="n">
         <v>2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.000000049238580702098</v>
+        <v>0.0000000265675500576399</v>
       </c>
       <c r="BK9" t="n">
         <v>2</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.00000000182224383642887</v>
+        <v>0.00000000111132585390857</v>
       </c>
       <c r="BM9" t="n">
         <v>2</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0000000011733818817883</v>
+        <v>0.000000000853641248517408</v>
       </c>
       <c r="BO9" t="n">
         <v>2</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0000000000156383681639382</v>
+        <v>0.0000000000109972559059195</v>
       </c>
       <c r="BQ9" t="n">
         <v>2</v>
       </c>
       <c r="BR9" t="n">
-        <v>43.9013105532467</v>
+        <v>40.3420582200761</v>
       </c>
       <c r="BS9" t="n">
         <v>2</v>
@@ -3219,7 +3219,7 @@
         <v>-7.28564717291859</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-79.0344408244247</v>
+        <v>-0.671510009951474</v>
       </c>
     </row>
     <row r="10">
@@ -3359,79 +3359,79 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>23.809034112549</v>
+        <v>23.8113642813469</v>
       </c>
       <c r="AU10" t="n">
         <v>2</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0000000269527266784181</v>
+        <v>0.0000000269522306305527</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.00000000113182040692521</v>
+        <v>0.00000000113143898972203</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.00000000078829036633882</v>
+        <v>0.000000000788154069077652</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0000000000101905566955645</v>
+        <v>0.0000000000102026121286053</v>
       </c>
       <c r="BC10" t="n">
         <v>2</v>
       </c>
       <c r="BD10" t="n">
-        <v>41.6720414865031</v>
+        <v>41.6642506177578</v>
       </c>
       <c r="BE10" t="n">
         <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.00000000117240783294128</v>
+        <v>0.000000000853408806844293</v>
       </c>
       <c r="BG10" t="n">
         <v>2</v>
       </c>
       <c r="BH10" t="n">
-        <v>26.5140434444705</v>
+        <v>23.832117218761</v>
       </c>
       <c r="BI10" t="n">
         <v>2</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0000000491770964858483</v>
+        <v>0.0000000265586551102891</v>
       </c>
       <c r="BK10" t="n">
         <v>2</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.00000000182027629251571</v>
+        <v>0.0000000011110122642703</v>
       </c>
       <c r="BM10" t="n">
         <v>2</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00000000117240783294128</v>
+        <v>0.000000000853408806844293</v>
       </c>
       <c r="BO10" t="n">
         <v>2</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0000000000156261186767343</v>
+        <v>0.0000000000109954767318894</v>
       </c>
       <c r="BQ10" t="n">
         <v>2</v>
       </c>
       <c r="BR10" t="n">
-        <v>43.8905829390874</v>
+        <v>40.3396216686646</v>
       </c>
       <c r="BS10" t="n">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>-7.16673905226</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-77.365843442572</v>
+        <v>-0.66034882662736</v>
       </c>
     </row>
     <row r="11">
@@ -3646,79 +3646,79 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>23.8076781826202</v>
+        <v>23.810045569996</v>
       </c>
       <c r="AU11" t="n">
         <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0000000269426567715586</v>
+        <v>0.0000000269421528005779</v>
       </c>
       <c r="AW11" t="n">
         <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.00000000113145973319887</v>
+        <v>0.00000000113107222381648</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.000000000788093587308625</v>
+        <v>0.00000000078795511304198</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0000000000101890826518829</v>
+        <v>0.0000000000102013306401043</v>
       </c>
       <c r="BC11" t="n">
         <v>2</v>
       </c>
       <c r="BD11" t="n">
-        <v>41.6657327529828</v>
+        <v>41.6578174447309</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.00000000117143378409426</v>
+        <v>0.000000000853176365171178</v>
       </c>
       <c r="BG11" t="n">
         <v>2</v>
       </c>
       <c r="BH11" t="n">
-        <v>26.5066816551019</v>
+        <v>23.8308520710721</v>
       </c>
       <c r="BI11" t="n">
         <v>2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0000000491156122695986</v>
+        <v>0.0000000265497601629383</v>
       </c>
       <c r="BK11" t="n">
         <v>2</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.00000000181830874860255</v>
+        <v>0.00000000111069867463202</v>
       </c>
       <c r="BM11" t="n">
         <v>2</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.00000000117143378409426</v>
+        <v>0.000000000853176365171178</v>
       </c>
       <c r="BO11" t="n">
         <v>2</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0000000000156138691895304</v>
+        <v>0.0000000000109936975578593</v>
       </c>
       <c r="BQ11" t="n">
         <v>2</v>
       </c>
       <c r="BR11" t="n">
-        <v>43.8798553249281</v>
+        <v>40.337185117253</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         <v>-7.15361700412568</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-76.8483280324987</v>
+        <v>-0.658939928579136</v>
       </c>
     </row>
     <row r="12">
@@ -3933,79 +3933,79 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>23.8063222526957</v>
+        <v>23.8087268586493</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.000000026932586864731</v>
+        <v>0.0000000269320749706351</v>
       </c>
       <c r="AW12" t="n">
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.00000000113109905947367</v>
+        <v>0.0000000011307054579121</v>
       </c>
       <c r="AY12" t="n">
         <v>2</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.000000000787896808279055</v>
+        <v>0.000000000787756157006941</v>
       </c>
       <c r="BA12" t="n">
         <v>2</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.000000000010187608608206</v>
+        <v>0.0000000000102000491516074</v>
       </c>
       <c r="BC12" t="n">
         <v>2</v>
       </c>
       <c r="BD12" t="n">
-        <v>41.6594240194825</v>
+        <v>41.6513842717245</v>
       </c>
       <c r="BE12" t="n">
         <v>2</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.00000000117045973525034</v>
+        <v>0.000000000852943923498801</v>
       </c>
       <c r="BG12" t="n">
         <v>2</v>
       </c>
       <c r="BH12" t="n">
-        <v>26.4993198657568</v>
+        <v>23.8295869233873</v>
       </c>
       <c r="BI12" t="n">
         <v>2</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0000000490541280535444</v>
+        <v>0.0000000265408652156159</v>
       </c>
       <c r="BK12" t="n">
         <v>2</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.00000000181634120469565</v>
+        <v>0.00000000111038508499473</v>
       </c>
       <c r="BM12" t="n">
         <v>2</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.00000000117045973525034</v>
+        <v>0.000000000852943923498801</v>
       </c>
       <c r="BO12" t="n">
         <v>2</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0000000000156016197023655</v>
+        <v>0.0000000000109919183838349</v>
       </c>
       <c r="BQ12" t="n">
         <v>2</v>
       </c>
       <c r="BR12" t="n">
-        <v>43.8691277108029</v>
+        <v>40.3347485658493</v>
       </c>
       <c r="BS12" t="n">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>-7.18032565180232</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-76.7601041846125</v>
+        <v>-0.6612009247412</v>
       </c>
     </row>
     <row r="13">
@@ -4220,79 +4220,79 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>23.8052375087484</v>
+        <v>23.8076718895644</v>
       </c>
       <c r="AU13" t="n">
         <v>2</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0000000269245309392114</v>
+        <v>0.0000000269240127066232</v>
       </c>
       <c r="AW13" t="n">
         <v>2</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.00000000113081052049144</v>
+        <v>0.0000000011304120451865</v>
       </c>
       <c r="AY13" t="n">
         <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.000000000787739385054273</v>
+        <v>0.000000000787596992177772</v>
       </c>
       <c r="BA13" t="n">
         <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.000000000010186429373256</v>
+        <v>0.0000000000101990239608026</v>
       </c>
       <c r="BC13" t="n">
         <v>2</v>
       </c>
       <c r="BD13" t="n">
-        <v>41.6543770326461</v>
+        <v>41.6462377332826</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.00000000116968049616962</v>
+        <v>0.00000000085275797015957</v>
       </c>
       <c r="BG13" t="n">
         <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>26.4934304342385</v>
+        <v>23.8285748052322</v>
       </c>
       <c r="BI13" t="n">
         <v>2</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0000000490049406803492</v>
+        <v>0.000000026533749257707</v>
       </c>
       <c r="BK13" t="n">
         <v>2</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.00000000181476716955887</v>
+        <v>0.00000000111013421328311</v>
       </c>
       <c r="BM13" t="n">
         <v>2</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.00000000116968049616962</v>
+        <v>0.00000000085275797015957</v>
       </c>
       <c r="BO13" t="n">
         <v>2</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0000000000155918201125635</v>
+        <v>0.0000000000109904950446051</v>
       </c>
       <c r="BQ13" t="n">
         <v>2</v>
       </c>
       <c r="BR13" t="n">
-        <v>43.8605456194414</v>
+        <v>40.3327993247123</v>
       </c>
       <c r="BS13" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         <v>-7.17309378288476</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-76.3844933279961</v>
+        <v>-0.660376734565926</v>
       </c>
     </row>
     <row r="14">
@@ -4507,79 +4507,79 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>23.8038815788196</v>
+        <v>23.8063531782135</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0000000269144610323519</v>
+        <v>0.0000000269139348766483</v>
       </c>
       <c r="AW14" t="n">
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0000000011304498467651</v>
+        <v>0.00000000113004527928095</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.000000000787542606024077</v>
+        <v>0.0000000007873980361421</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0000000000101849553295744</v>
+        <v>0.0000000000101977424723016</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
       </c>
       <c r="BD14" t="n">
-        <v>41.6480682991258</v>
+        <v>41.6398045602557</v>
       </c>
       <c r="BE14" t="n">
         <v>2</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0000000011687064473226</v>
+        <v>0.000000000852525528486455</v>
       </c>
       <c r="BG14" t="n">
         <v>2</v>
       </c>
       <c r="BH14" t="n">
-        <v>26.48606864487</v>
+        <v>23.8273096575434</v>
       </c>
       <c r="BI14" t="n">
         <v>2</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.0000000489434564640995</v>
+        <v>0.0000000265248543103562</v>
       </c>
       <c r="BK14" t="n">
         <v>2</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.00000000181279962564571</v>
+        <v>0.00000000110982062364483</v>
       </c>
       <c r="BM14" t="n">
         <v>2</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0000000011687064473226</v>
+        <v>0.000000000852525528486455</v>
       </c>
       <c r="BO14" t="n">
         <v>2</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0000000000155795706253596</v>
+        <v>0.000000000010988715870575</v>
       </c>
       <c r="BQ14" t="n">
         <v>2</v>
       </c>
       <c r="BR14" t="n">
-        <v>43.8498180052821</v>
+        <v>40.3303627733008</v>
       </c>
       <c r="BS14" t="n">
         <v>2</v>
@@ -4654,7 +4654,7 @@
         <v>-7.19236882483038</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-76.2177526419248</v>
+        <v>-0.661954120371387</v>
       </c>
     </row>
     <row r="15">
@@ -4794,79 +4794,79 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>23.8025256488908</v>
+        <v>23.8050344668626</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0000000269043911254924</v>
+        <v>0.0000000269038570466735</v>
       </c>
       <c r="AW15" t="n">
         <v>2</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.00000000113008917303875</v>
+        <v>0.0000000011296785133754</v>
       </c>
       <c r="AY15" t="n">
         <v>2</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.000000000787345826993881</v>
+        <v>0.000000000787199080106429</v>
       </c>
       <c r="BA15" t="n">
         <v>2</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0000000000101834812858928</v>
+        <v>0.0000000000101964609838006</v>
       </c>
       <c r="BC15" t="n">
         <v>2</v>
       </c>
       <c r="BD15" t="n">
-        <v>41.6417595656054</v>
+        <v>41.6333713872289</v>
       </c>
       <c r="BE15" t="n">
         <v>2</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.00000000116773239847558</v>
+        <v>0.00000000085229308681334</v>
       </c>
       <c r="BG15" t="n">
         <v>2</v>
       </c>
       <c r="BH15" t="n">
-        <v>26.4787068555014</v>
+        <v>23.8260445098545</v>
       </c>
       <c r="BI15" t="n">
         <v>2</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0000000488819722478498</v>
+        <v>0.0000000265159593630054</v>
       </c>
       <c r="BK15" t="n">
         <v>2</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.00000000181083208173255</v>
+        <v>0.00000000110950703400656</v>
       </c>
       <c r="BM15" t="n">
         <v>2</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.00000000116773239847558</v>
+        <v>0.00000000085229308681334</v>
       </c>
       <c r="BO15" t="n">
         <v>2</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0000000000155673211381557</v>
+        <v>0.0000000000109869366965449</v>
       </c>
       <c r="BQ15" t="n">
         <v>2</v>
       </c>
       <c r="BR15" t="n">
-        <v>43.8390903911228</v>
+        <v>40.3279262218893</v>
       </c>
       <c r="BS15" t="n">
         <v>2</v>
@@ -4941,7 +4941,7 @@
         <v>-7.22993218202611</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-76.2439576610326</v>
+        <v>-0.665214456632709</v>
       </c>
     </row>
     <row r="16">
@@ -5081,79 +5081,79 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>23.8011697189663</v>
+        <v>23.8037157555159</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0000000268943212186648</v>
+        <v>0.0000000268937792167306</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.00000000112972849931355</v>
+        <v>0.00000000112931174747102</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.000000000787149047964311</v>
+        <v>0.00000000078700012407139</v>
       </c>
       <c r="BA16" t="n">
         <v>2</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0000000000101820072422158</v>
+        <v>0.0000000000101951794953036</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
       </c>
       <c r="BD16" t="n">
-        <v>41.6354508321051</v>
+        <v>41.6269382142224</v>
       </c>
       <c r="BE16" t="n">
         <v>2</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.00000000116675834963166</v>
+        <v>0.000000000852060645140964</v>
       </c>
       <c r="BG16" t="n">
         <v>2</v>
       </c>
       <c r="BH16" t="n">
-        <v>26.4713450661563</v>
+        <v>23.8247793621697</v>
       </c>
       <c r="BI16" t="n">
         <v>2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0000000488204880317956</v>
+        <v>0.000000026507064415683</v>
       </c>
       <c r="BK16" t="n">
         <v>2</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.00000000180886453782565</v>
+        <v>0.00000000110919344436927</v>
       </c>
       <c r="BM16" t="n">
         <v>2</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.00000000116675834963166</v>
+        <v>0.000000000852060645140964</v>
       </c>
       <c r="BO16" t="n">
         <v>2</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0000000000155550716509908</v>
+        <v>0.0000000000109851575225205</v>
       </c>
       <c r="BQ16" t="n">
         <v>2</v>
       </c>
       <c r="BR16" t="n">
-        <v>43.8283627769976</v>
+        <v>40.3254896704855</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>-7.23890907292503</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-75.9683756497537</v>
+        <v>-0.665844652998893</v>
       </c>
     </row>
     <row r="17">
@@ -5368,79 +5368,79 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>23.8000849750189</v>
+        <v>23.802660786431</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0000000268862652931452</v>
+        <v>0.0000000268857169527187</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.00000000112943996033133</v>
+        <v>0.00000000112901833474541</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.000000000786991624739529</v>
+        <v>0.00000000078684095924222</v>
       </c>
       <c r="BA17" t="n">
         <v>2</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0000000000101808280072658</v>
+        <v>0.0000000000101941543044988</v>
       </c>
       <c r="BC17" t="n">
         <v>2</v>
       </c>
       <c r="BD17" t="n">
-        <v>41.6304038452688</v>
+        <v>41.6217916757805</v>
       </c>
       <c r="BE17" t="n">
         <v>2</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.00000000116597911055095</v>
+        <v>0.000000000851874691801733</v>
       </c>
       <c r="BG17" t="n">
         <v>2</v>
       </c>
       <c r="BH17" t="n">
-        <v>26.465455634638</v>
+        <v>23.8237672440146</v>
       </c>
       <c r="BI17" t="n">
         <v>2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0000000487713006586004</v>
+        <v>0.0000000264999484577741</v>
       </c>
       <c r="BK17" t="n">
         <v>2</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.00000000180729050268887</v>
+        <v>0.00000000110894257265765</v>
       </c>
       <c r="BM17" t="n">
         <v>2</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.00000000116597911055095</v>
+        <v>0.000000000851874691801733</v>
       </c>
       <c r="BO17" t="n">
         <v>2</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0000000000155452720611888</v>
+        <v>0.0000000000109837341832907</v>
       </c>
       <c r="BQ17" t="n">
         <v>2</v>
       </c>
       <c r="BR17" t="n">
-        <v>43.8197806856361</v>
+        <v>40.3235404293486</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
@@ -5515,7 +5515,7 @@
         <v>-7.25139124186536</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-75.8041389323059</v>
+        <v>-0.666836853210442</v>
       </c>
     </row>
     <row r="18">
@@ -5655,79 +5655,79 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>23.7987290450901</v>
+        <v>23.8013420750801</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0000000268761953862857</v>
+        <v>0.0000000268756391227439</v>
       </c>
       <c r="AW18" t="n">
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.00000000112907928660499</v>
+        <v>0.00000000112865156883986</v>
       </c>
       <c r="AY18" t="n">
         <v>2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.000000000786794845709334</v>
+        <v>0.000000000786642003206549</v>
       </c>
       <c r="BA18" t="n">
         <v>2</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.0000000000101793539635842</v>
+        <v>0.0000000000101928728159978</v>
       </c>
       <c r="BC18" t="n">
         <v>2</v>
       </c>
       <c r="BD18" t="n">
-        <v>41.6240951117485</v>
+        <v>41.6153585027536</v>
       </c>
       <c r="BE18" t="n">
         <v>2</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.00000000116500506170393</v>
+        <v>0.000000000851642250128618</v>
       </c>
       <c r="BG18" t="n">
         <v>2</v>
       </c>
       <c r="BH18" t="n">
-        <v>26.4580938452695</v>
+        <v>23.8225020963258</v>
       </c>
       <c r="BI18" t="n">
         <v>2</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0000000487098164423507</v>
+        <v>0.0000000264910535104233</v>
       </c>
       <c r="BK18" t="n">
         <v>2</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.00000000180532295877571</v>
+        <v>0.00000000110862898301937</v>
       </c>
       <c r="BM18" t="n">
         <v>2</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.00000000116500506170393</v>
+        <v>0.000000000851642250128618</v>
       </c>
       <c r="BO18" t="n">
         <v>2</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0000000000155330225739849</v>
+        <v>0.0000000000109819550092606</v>
       </c>
       <c r="BQ18" t="n">
         <v>2</v>
       </c>
       <c r="BR18" t="n">
-        <v>43.8090530714768</v>
+        <v>40.3211038779371</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
@@ -5802,7 +5802,7 @@
         <v>-7.25557854602214</v>
       </c>
       <c r="CQ18" t="n">
-        <v>-75.4804964860515</v>
+        <v>-0.667028069763059</v>
       </c>
     </row>
     <row r="19">
@@ -5942,79 +5942,79 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>23.7973731151613</v>
+        <v>23.8000233637292</v>
       </c>
       <c r="AU19" t="n">
         <v>2</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0000000268661254794262</v>
+        <v>0.000000026865561292769</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.00000000112871861287864</v>
+        <v>0.00000000112828480293431</v>
       </c>
       <c r="AY19" t="n">
         <v>2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.000000000786598066679138</v>
+        <v>0.000000000786443047170877</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.0000000000101778799199026</v>
+        <v>0.0000000000101915913274968</v>
       </c>
       <c r="BC19" t="n">
         <v>2</v>
       </c>
       <c r="BD19" t="n">
-        <v>41.6177863782281</v>
+        <v>41.6089253297268</v>
       </c>
       <c r="BE19" t="n">
         <v>2</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.00000000116403101285691</v>
+        <v>0.000000000851409808455503</v>
       </c>
       <c r="BG19" t="n">
         <v>2</v>
       </c>
       <c r="BH19" t="n">
-        <v>26.4507320559009</v>
+        <v>23.8212369486369</v>
       </c>
       <c r="BI19" t="n">
         <v>2</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.000000048648332226101</v>
+        <v>0.0000000264821585630725</v>
       </c>
       <c r="BK19" t="n">
         <v>2</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.00000000180335541486255</v>
+        <v>0.00000000110831539338109</v>
       </c>
       <c r="BM19" t="n">
         <v>2</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.00000000116403101285691</v>
+        <v>0.000000000851409808455503</v>
       </c>
       <c r="BO19" t="n">
         <v>2</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.000000000015520773086781</v>
+        <v>0.0000000000109801758352305</v>
       </c>
       <c r="BQ19" t="n">
         <v>2</v>
       </c>
       <c r="BR19" t="n">
-        <v>43.7983254573175</v>
+        <v>40.3186673265255</v>
       </c>
       <c r="BS19" t="n">
         <v>2</v>
@@ -6089,7 +6089,7 @@
         <v>-7.27997721665139</v>
       </c>
       <c r="CQ19" t="n">
-        <v>-75.3676970761085</v>
+        <v>-0.669077914593585</v>
       </c>
     </row>
     <row r="20">
@@ -6229,79 +6229,79 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>23.7960171852368</v>
+        <v>23.7987046523824</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0000000268560555725987</v>
+        <v>0.0000000268554834628262</v>
       </c>
       <c r="AW20" t="n">
         <v>2</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.00000000112835793915344</v>
+        <v>0.00000000112791803702993</v>
       </c>
       <c r="AY20" t="n">
         <v>2</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.000000000786401287649568</v>
+        <v>0.000000000786244091135838</v>
       </c>
       <c r="BA20" t="n">
         <v>2</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.0000000000101764058762257</v>
+        <v>0.0000000000101903098389999</v>
       </c>
       <c r="BC20" t="n">
         <v>2</v>
       </c>
       <c r="BD20" t="n">
-        <v>41.6114776447278</v>
+        <v>41.6024921567204</v>
       </c>
       <c r="BE20" t="n">
         <v>2</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.00000000116305696401299</v>
+        <v>0.000000000851177366783127</v>
       </c>
       <c r="BG20" t="n">
         <v>2</v>
       </c>
       <c r="BH20" t="n">
-        <v>26.4433702665557</v>
+        <v>23.8199718009521</v>
       </c>
       <c r="BI20" t="n">
         <v>2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.0000000485868480100468</v>
+        <v>0.0000000264732636157501</v>
       </c>
       <c r="BK20" t="n">
         <v>2</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.00000000180138787095565</v>
+        <v>0.00000000110800180374381</v>
       </c>
       <c r="BM20" t="n">
         <v>2</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.00000000116305696401299</v>
+        <v>0.000000000851177366783127</v>
       </c>
       <c r="BO20" t="n">
         <v>2</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0000000000155085235996161</v>
+        <v>0.0000000000109783966612061</v>
       </c>
       <c r="BQ20" t="n">
         <v>2</v>
       </c>
       <c r="BR20" t="n">
-        <v>43.7875978431923</v>
+        <v>40.3162307751218</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
@@ -6376,7 +6376,7 @@
         <v>-7.30844901740268</v>
       </c>
       <c r="CQ20" t="n">
-        <v>-75.2964233193126</v>
+        <v>-0.671501995525137</v>
       </c>
     </row>
     <row r="21">
@@ -6516,79 +6516,79 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>23.7949324412895</v>
+        <v>23.7976496832975</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.000000026847999647079</v>
+        <v>0.0000000268474211988143</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.00000000112806940017122</v>
+        <v>0.00000000112762462430433</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.000000000786243864424786</v>
+        <v>0.000000000786084926306669</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.0000000000101752266412757</v>
+        <v>0.000000000010189284648195</v>
       </c>
       <c r="BC21" t="n">
         <v>2</v>
       </c>
       <c r="BD21" t="n">
-        <v>41.6064306578915</v>
+        <v>41.5973456182784</v>
       </c>
       <c r="BE21" t="n">
         <v>2</v>
       </c>
       <c r="BF21" t="n">
-        <v>0.00000000116227772493227</v>
+        <v>0.000000000850991413443896</v>
       </c>
       <c r="BG21" t="n">
         <v>2</v>
       </c>
       <c r="BH21" t="n">
-        <v>26.4374808350375</v>
+        <v>23.818959682797</v>
       </c>
       <c r="BI21" t="n">
         <v>2</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.0000000485376606368516</v>
+        <v>0.0000000264661476578412</v>
       </c>
       <c r="BK21" t="n">
         <v>2</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.00000000179981383581887</v>
+        <v>0.00000000110775093203219</v>
       </c>
       <c r="BM21" t="n">
         <v>2</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.00000000116227772493227</v>
+        <v>0.000000000850991413443896</v>
       </c>
       <c r="BO21" t="n">
         <v>2</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.0000000000154987240098141</v>
+        <v>0.0000000000109769733219763</v>
       </c>
       <c r="BQ21" t="n">
         <v>2</v>
       </c>
       <c r="BR21" t="n">
-        <v>43.7790157518307</v>
+        <v>40.3142815339848</v>
       </c>
       <c r="BS21" t="n">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>-7.32297975494323</v>
       </c>
       <c r="CQ21" t="n">
-        <v>-75.1541641307216</v>
+        <v>-0.672683568819027</v>
       </c>
     </row>
     <row r="22">
@@ -6803,79 +6803,79 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>23.7935765113607</v>
+        <v>23.7963309719466</v>
       </c>
       <c r="AU22" t="n">
         <v>2</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.0000000268379297402195</v>
+        <v>0.0000000268373433688394</v>
       </c>
       <c r="AW22" t="n">
         <v>2</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.00000000112770872644487</v>
+        <v>0.00000000112725785839878</v>
       </c>
       <c r="AY22" t="n">
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.00000000078604708539459</v>
+        <v>0.000000000785885970270997</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.0000000000101737525975941</v>
+        <v>0.000000000010188003159694</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
       </c>
       <c r="BD22" t="n">
-        <v>41.6001219243712</v>
+        <v>41.5909124452516</v>
       </c>
       <c r="BE22" t="n">
         <v>2</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.00000000116130367608525</v>
+        <v>0.000000000850758971770781</v>
       </c>
       <c r="BG22" t="n">
         <v>2</v>
       </c>
       <c r="BH22" t="n">
-        <v>26.4301190456689</v>
+        <v>23.8176945351082</v>
       </c>
       <c r="BI22" t="n">
         <v>2</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.0000000484761764206019</v>
+        <v>0.0000000264572527104904</v>
       </c>
       <c r="BK22" t="n">
         <v>2</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.00000000179784629190571</v>
+        <v>0.00000000110743734239391</v>
       </c>
       <c r="BM22" t="n">
         <v>2</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.00000000116130367608525</v>
+        <v>0.000000000850758971770781</v>
       </c>
       <c r="BO22" t="n">
         <v>2</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.0000000000154864745226102</v>
+        <v>0.0000000000109751941479462</v>
       </c>
       <c r="BQ22" t="n">
         <v>2</v>
       </c>
       <c r="BR22" t="n">
-        <v>43.7682881376715</v>
+        <v>40.3118449825733</v>
       </c>
       <c r="BS22" t="n">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>-7.3408892742772</v>
       </c>
       <c r="CQ22" t="n">
-        <v>-74.9739147804035</v>
+        <v>-0.674137511253223</v>
       </c>
     </row>
     <row r="23">
@@ -7090,79 +7090,79 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>23.7922205814362</v>
+        <v>23.7950122605999</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.000000026827859833392</v>
+        <v>0.0000000268272655388966</v>
       </c>
       <c r="AW23" t="n">
         <v>2</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.00000000112734805271967</v>
+        <v>0.0000000011268910924944</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.00000000078585030636502</v>
+        <v>0.000000000785687014235958</v>
       </c>
       <c r="BA23" t="n">
         <v>2</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.0000000000101722785539171</v>
+        <v>0.0000000000101867216711971</v>
       </c>
       <c r="BC23" t="n">
         <v>2</v>
       </c>
       <c r="BD23" t="n">
-        <v>41.5938131908709</v>
+        <v>41.5844792722451</v>
       </c>
       <c r="BE23" t="n">
         <v>2</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.00000000116032962724133</v>
+        <v>0.000000000850526530098405</v>
       </c>
       <c r="BG23" t="n">
         <v>2</v>
       </c>
       <c r="BH23" t="n">
-        <v>26.4227572563238</v>
+        <v>23.8164293874234</v>
       </c>
       <c r="BI23" t="n">
         <v>2</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.0000000484146922045476</v>
+        <v>0.0000000264483577631679</v>
       </c>
       <c r="BK23" t="n">
         <v>2</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.00000000179587874799881</v>
+        <v>0.00000000110712375275663</v>
       </c>
       <c r="BM23" t="n">
         <v>2</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.00000000116032962724133</v>
+        <v>0.000000000850526530098405</v>
       </c>
       <c r="BO23" t="n">
         <v>2</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.0000000000154742250354453</v>
+        <v>0.0000000000109734149739218</v>
       </c>
       <c r="BQ23" t="n">
         <v>2</v>
       </c>
       <c r="BR23" t="n">
-        <v>43.7575605235463</v>
+        <v>40.3094084311695</v>
       </c>
       <c r="BS23" t="n">
         <v>2</v>
@@ -7237,7 +7237,7 @@
         <v>-7.35758692268441</v>
       </c>
       <c r="CQ23" t="n">
-        <v>-74.7815574908443</v>
+        <v>-0.675480531895673</v>
       </c>
     </row>
     <row r="24">
@@ -7377,79 +7377,79 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>23.7911358374888</v>
+        <v>23.793957291515</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.0000000268198039078724</v>
+        <v>0.0000000268192032748847</v>
       </c>
       <c r="AW24" t="n">
         <v>2</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.00000000112705951373745</v>
+        <v>0.00000000112659767976879</v>
       </c>
       <c r="AY24" t="n">
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.000000000785692883140238</v>
+        <v>0.000000000785527849406789</v>
       </c>
       <c r="BA24" t="n">
         <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.0000000000101710993189672</v>
+        <v>0.0000000000101856964803922</v>
       </c>
       <c r="BC24" t="n">
         <v>2</v>
       </c>
       <c r="BD24" t="n">
-        <v>41.5887662040345</v>
+        <v>41.5793327338032</v>
       </c>
       <c r="BE24" t="n">
         <v>2</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.00000000115955038816062</v>
+        <v>0.000000000850340576759174</v>
       </c>
       <c r="BG24" t="n">
         <v>2</v>
       </c>
       <c r="BH24" t="n">
-        <v>26.4168678248055</v>
+        <v>23.8154172692683</v>
       </c>
       <c r="BI24" t="n">
         <v>2</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.0000000483655048313524</v>
+        <v>0.000000026441241805259</v>
       </c>
       <c r="BK24" t="n">
         <v>2</v>
       </c>
       <c r="BL24" t="n">
-        <v>0.00000000179430471286203</v>
+        <v>0.00000000110687288104501</v>
       </c>
       <c r="BM24" t="n">
         <v>2</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.00000000115955038816062</v>
+        <v>0.000000000850340576759174</v>
       </c>
       <c r="BO24" t="n">
         <v>2</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.0000000000154644254456432</v>
+        <v>0.000000000010971991634692</v>
       </c>
       <c r="BQ24" t="n">
         <v>2</v>
       </c>
       <c r="BR24" t="n">
-        <v>43.7489784321847</v>
+        <v>40.3074591900326</v>
       </c>
       <c r="BS24" t="n">
         <v>2</v>
@@ -7524,7 +7524,7 @@
         <v>-7.37793433367951</v>
       </c>
       <c r="CQ24" t="n">
-        <v>-74.6986702204317</v>
+        <v>-0.677196759389412</v>
       </c>
     </row>
     <row r="25">
@@ -7664,79 +7664,79 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>23.78977990756</v>
+        <v>23.7926385801641</v>
       </c>
       <c r="AU25" t="n">
         <v>2</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.0000000268097340010128</v>
+        <v>0.0000000268091254449098</v>
       </c>
       <c r="AW25" t="n">
         <v>2</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.0000000011266988400111</v>
+        <v>0.00000000112623091386324</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.000000000785496104110042</v>
+        <v>0.000000000785328893371117</v>
       </c>
       <c r="BA25" t="n">
         <v>2</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.0000000000101696252752855</v>
+        <v>0.0000000000101844149918912</v>
       </c>
       <c r="BC25" t="n">
         <v>2</v>
       </c>
       <c r="BD25" t="n">
-        <v>41.5824574705142</v>
+        <v>41.5728995607763</v>
       </c>
       <c r="BE25" t="n">
         <v>2</v>
       </c>
       <c r="BF25" t="n">
-        <v>0.0000000011585763393136</v>
+        <v>0.000000000850108135086059</v>
       </c>
       <c r="BG25" t="n">
         <v>2</v>
       </c>
       <c r="BH25" t="n">
-        <v>26.409506035437</v>
+        <v>23.8141521215794</v>
       </c>
       <c r="BI25" t="n">
         <v>2</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.0000000483040206151027</v>
+        <v>0.0000000264323468579083</v>
       </c>
       <c r="BK25" t="n">
         <v>2</v>
       </c>
       <c r="BL25" t="n">
-        <v>0.00000000179233716894887</v>
+        <v>0.00000000110655929140673</v>
       </c>
       <c r="BM25" t="n">
         <v>2</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.0000000011585763393136</v>
+        <v>0.000000000850108135086059</v>
       </c>
       <c r="BO25" t="n">
         <v>2</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.0000000000154521759584394</v>
+        <v>0.0000000000109702124606619</v>
       </c>
       <c r="BQ25" t="n">
         <v>2</v>
       </c>
       <c r="BR25" t="n">
-        <v>43.7382508180254</v>
+        <v>40.3050226386211</v>
       </c>
       <c r="BS25" t="n">
         <v>2</v>
@@ -7811,7 +7811,7 @@
         <v>-7.39967628166871</v>
       </c>
       <c r="CQ25" t="n">
-        <v>-74.5573807202847</v>
+        <v>-0.679003186609984</v>
       </c>
     </row>
     <row r="26">
@@ -7951,79 +7951,79 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>23.7884239776312</v>
+        <v>23.7913198688132</v>
       </c>
       <c r="AU26" t="n">
         <v>2</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.0000000267996640941533</v>
+        <v>0.000000026799047614935</v>
       </c>
       <c r="AW26" t="n">
         <v>2</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.00000000112633816628476</v>
+        <v>0.0000000011258641479577</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.000000000785299325079847</v>
+        <v>0.000000000785129937335446</v>
       </c>
       <c r="BA26" t="n">
         <v>2</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.0000000000101681512316039</v>
+        <v>0.0000000000101831335033902</v>
       </c>
       <c r="BC26" t="n">
         <v>2</v>
       </c>
       <c r="BD26" t="n">
-        <v>41.5761487369938</v>
+        <v>41.5664663877495</v>
       </c>
       <c r="BE26" t="n">
         <v>2</v>
       </c>
       <c r="BF26" t="n">
-        <v>0.00000000115760229046658</v>
+        <v>0.000000000849875693412943</v>
       </c>
       <c r="BG26" t="n">
         <v>2</v>
       </c>
       <c r="BH26" t="n">
-        <v>26.4021442460684</v>
+        <v>23.8128869738906</v>
       </c>
       <c r="BI26" t="n">
         <v>2</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.0000000482425363988531</v>
+        <v>0.0000000264234519105575</v>
       </c>
       <c r="BK26" t="n">
         <v>2</v>
       </c>
       <c r="BL26" t="n">
-        <v>0.00000000179036962503571</v>
+        <v>0.00000000110624570176845</v>
       </c>
       <c r="BM26" t="n">
         <v>2</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.00000000115760229046658</v>
+        <v>0.000000000849875693412943</v>
       </c>
       <c r="BO26" t="n">
         <v>2</v>
       </c>
       <c r="BP26" t="n">
-        <v>0.0000000000154399264712355</v>
+        <v>0.0000000000109684332866318</v>
       </c>
       <c r="BQ26" t="n">
         <v>2</v>
       </c>
       <c r="BR26" t="n">
-        <v>43.7275232038661</v>
+        <v>40.3025860872095</v>
       </c>
       <c r="BS26" t="n">
         <v>2</v>
@@ -8098,7 +8098,7 @@
         <v>-7.41970733277867</v>
       </c>
       <c r="CQ26" t="n">
-        <v>-74.3987672169089</v>
+        <v>-0.680652802178319</v>
       </c>
     </row>
     <row r="27">
@@ -8238,79 +8238,79 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>23.7870680477067</v>
+        <v>23.7900011574665</v>
       </c>
       <c r="AU27" t="n">
         <v>2</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.0000000267895941873258</v>
+        <v>0.0000000267889697849922</v>
       </c>
       <c r="AW27" t="n">
         <v>2</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.00000000112597749255956</v>
+        <v>0.00000000112549738205331</v>
       </c>
       <c r="AY27" t="n">
         <v>2</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.000000000785102546050276</v>
+        <v>0.000000000784930981300407</v>
       </c>
       <c r="BA27" t="n">
         <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.000000000010166677187927</v>
+        <v>0.0000000000101818520148933</v>
       </c>
       <c r="BC27" t="n">
         <v>2</v>
       </c>
       <c r="BD27" t="n">
-        <v>41.5698400034936</v>
+        <v>41.5600332147431</v>
       </c>
       <c r="BE27" t="n">
         <v>2</v>
       </c>
       <c r="BF27" t="n">
-        <v>0.00000000115662824162265</v>
+        <v>0.000000000849643251740567</v>
       </c>
       <c r="BG27" t="n">
         <v>2</v>
       </c>
       <c r="BH27" t="n">
-        <v>26.3947824567233</v>
+        <v>23.8116218262058</v>
       </c>
       <c r="BI27" t="n">
         <v>2</v>
       </c>
       <c r="BJ27" t="n">
-        <v>0.0000000481810521827988</v>
+        <v>0.000000026414556963235</v>
       </c>
       <c r="BK27" t="n">
         <v>2</v>
       </c>
       <c r="BL27" t="n">
-        <v>0.00000000178840208112881</v>
+        <v>0.00000000110593211213117</v>
       </c>
       <c r="BM27" t="n">
         <v>2</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.00000000115662824162265</v>
+        <v>0.000000000849643251740567</v>
       </c>
       <c r="BO27" t="n">
         <v>2</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.0000000000154276769840706</v>
+        <v>0.0000000000109666541126074</v>
       </c>
       <c r="BQ27" t="n">
         <v>2</v>
       </c>
       <c r="BR27" t="n">
-        <v>43.7167955897409</v>
+        <v>40.3001495358058</v>
       </c>
       <c r="BS27" t="n">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>-7.43370422044881</v>
       </c>
       <c r="CQ27" t="n">
-        <v>-74.1799370287721</v>
+        <v>-0.681749246834956</v>
       </c>
     </row>
     <row r="28">
@@ -8525,79 +8525,79 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>23.7859833037594</v>
+        <v>23.7889461883816</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>0.0000000267815382618062</v>
+        <v>0.0000000267809075209803</v>
       </c>
       <c r="AW28" t="n">
         <v>2</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.00000000112568895357734</v>
+        <v>0.00000000112520396932771</v>
       </c>
       <c r="AY28" t="n">
         <v>2</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0.000000000784945122825494</v>
+        <v>0.000000000784771816471237</v>
       </c>
       <c r="BA28" t="n">
         <v>2</v>
       </c>
       <c r="BB28" t="n">
-        <v>0.000000000010165497952977</v>
+        <v>0.0000000000101808268240884</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
       </c>
       <c r="BD28" t="n">
-        <v>41.5647930166572</v>
+        <v>41.5548866763011</v>
       </c>
       <c r="BE28" t="n">
         <v>2</v>
       </c>
       <c r="BF28" t="n">
-        <v>0.00000000115584900254194</v>
+        <v>0.000000000849457298401336</v>
       </c>
       <c r="BG28" t="n">
         <v>2</v>
       </c>
       <c r="BH28" t="n">
-        <v>26.388893025205</v>
+        <v>23.8106097080507</v>
       </c>
       <c r="BI28" t="n">
         <v>2</v>
       </c>
       <c r="BJ28" t="n">
-        <v>0.0000000481318648096036</v>
+        <v>0.0000000264074410053261</v>
       </c>
       <c r="BK28" t="n">
         <v>2</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.00000000178682804599203</v>
+        <v>0.00000000110568124041955</v>
       </c>
       <c r="BM28" t="n">
         <v>2</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.00000000115584900254194</v>
+        <v>0.000000000849457298401336</v>
       </c>
       <c r="BO28" t="n">
         <v>2</v>
       </c>
       <c r="BP28" t="n">
-        <v>0.0000000000154178773942685</v>
+        <v>0.0000000000109652307733777</v>
       </c>
       <c r="BQ28" t="n">
         <v>2</v>
       </c>
       <c r="BR28" t="n">
-        <v>43.7082134983794</v>
+        <v>40.2982002946688</v>
       </c>
       <c r="BS28" t="n">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>-7.45030867154406</v>
       </c>
       <c r="CQ28" t="n">
-        <v>-74.0590354952836</v>
+        <v>-0.683122547856558</v>
       </c>
     </row>
     <row r="29">
@@ -8812,79 +8812,79 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>23.7846273738305</v>
+        <v>23.7876274770307</v>
       </c>
       <c r="AU29" t="n">
         <v>2</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.0000000267714683549466</v>
+        <v>0.0000000267708296910054</v>
       </c>
       <c r="AW29" t="n">
         <v>2</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.00000000112532827985099</v>
+        <v>0.00000000112483720342216</v>
       </c>
       <c r="AY29" t="n">
         <v>2</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0.000000000784748343795299</v>
+        <v>0.000000000784572860435566</v>
       </c>
       <c r="BA29" t="n">
         <v>2</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.0000000000101640239092954</v>
+        <v>0.0000000000101795453355874</v>
       </c>
       <c r="BC29" t="n">
         <v>2</v>
       </c>
       <c r="BD29" t="n">
-        <v>41.5584842831369</v>
+        <v>41.5484535032743</v>
       </c>
       <c r="BE29" t="n">
         <v>2</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.00000000115487495369492</v>
+        <v>0.000000000849224856728221</v>
       </c>
       <c r="BG29" t="n">
         <v>2</v>
       </c>
       <c r="BH29" t="n">
-        <v>26.3815312358365</v>
+        <v>23.8093445603618</v>
       </c>
       <c r="BI29" t="n">
         <v>2</v>
       </c>
       <c r="BJ29" t="n">
-        <v>0.0000000480703805933539</v>
+        <v>0.0000000263985460579754</v>
       </c>
       <c r="BK29" t="n">
         <v>2</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.00000000178486050207887</v>
+        <v>0.00000000110536765078127</v>
       </c>
       <c r="BM29" t="n">
         <v>2</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.00000000115487495369492</v>
+        <v>0.000000000849224856728221</v>
       </c>
       <c r="BO29" t="n">
         <v>2</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.0000000000154056279070647</v>
+        <v>0.0000000000109634515993476</v>
       </c>
       <c r="BQ29" t="n">
         <v>2</v>
       </c>
       <c r="BR29" t="n">
-        <v>43.6974858842201</v>
+        <v>40.2957637432573</v>
       </c>
       <c r="BS29" t="n">
         <v>2</v>
@@ -8959,7 +8959,7 @@
         <v>-7.47138721779742</v>
       </c>
       <c r="CQ29" t="n">
-        <v>-73.9110363649308</v>
+        <v>-0.684868949523948</v>
       </c>
     </row>
     <row r="30">
@@ -9099,79 +9099,79 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>23.7832714439017</v>
+        <v>23.7863087656798</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.0000000267613984480871</v>
+        <v>0.0000000267607518610306</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.00000000112496760612465</v>
+        <v>0.00000000112447043751661</v>
       </c>
       <c r="AY30" t="n">
         <v>2</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.000000000784551564765103</v>
+        <v>0.000000000784373904399894</v>
       </c>
       <c r="BA30" t="n">
         <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0000000000101625498656138</v>
+        <v>0.0000000000101782638470865</v>
       </c>
       <c r="BC30" t="n">
         <v>2</v>
       </c>
       <c r="BD30" t="n">
-        <v>41.5521755496165</v>
+        <v>41.5420203302474</v>
       </c>
       <c r="BE30" t="n">
         <v>2</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.0000000011539009048479</v>
+        <v>0.000000000848992415055106</v>
       </c>
       <c r="BG30" t="n">
         <v>2</v>
       </c>
       <c r="BH30" t="n">
-        <v>26.3741694464679</v>
+        <v>23.808079412673</v>
       </c>
       <c r="BI30" t="n">
         <v>2</v>
       </c>
       <c r="BJ30" t="n">
-        <v>0.0000000480088963771042</v>
+        <v>0.0000000263896511106246</v>
       </c>
       <c r="BK30" t="n">
         <v>2</v>
       </c>
       <c r="BL30" t="n">
-        <v>0.00000000178289295816571</v>
+        <v>0.00000000110505406114299</v>
       </c>
       <c r="BM30" t="n">
         <v>2</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.0000000011539009048479</v>
+        <v>0.000000000848992415055106</v>
       </c>
       <c r="BO30" t="n">
         <v>2</v>
       </c>
       <c r="BP30" t="n">
-        <v>0.0000000000153933784198608</v>
+        <v>0.0000000000109616724253174</v>
       </c>
       <c r="BQ30" t="n">
         <v>2</v>
       </c>
       <c r="BR30" t="n">
-        <v>43.6867582700608</v>
+        <v>40.2933271918458</v>
       </c>
       <c r="BS30" t="n">
         <v>2</v>
@@ -9246,7 +9246,7 @@
         <v>-7.49698263598095</v>
       </c>
       <c r="CQ30" t="n">
-        <v>-73.8073999079508</v>
+        <v>-0.68702945271775</v>
       </c>
     </row>
     <row r="31">
@@ -9386,79 +9386,79 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>23.7819155139772</v>
+        <v>23.784990054333</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.0000000267513285412596</v>
+        <v>0.0000000267506740310877</v>
       </c>
       <c r="AW31" t="n">
         <v>2</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.00000000112460693239945</v>
+        <v>0.00000000112410367161223</v>
       </c>
       <c r="AY31" t="n">
         <v>2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>0.000000000784354785735533</v>
+        <v>0.000000000784174948364855</v>
       </c>
       <c r="BA31" t="n">
         <v>2</v>
       </c>
       <c r="BB31" t="n">
-        <v>0.0000000000101610758219368</v>
+        <v>0.0000000000101769823585895</v>
       </c>
       <c r="BC31" t="n">
         <v>2</v>
       </c>
       <c r="BD31" t="n">
-        <v>41.5458668161162</v>
+        <v>41.535587157241</v>
       </c>
       <c r="BE31" t="n">
         <v>2</v>
       </c>
       <c r="BF31" t="n">
-        <v>0.00000000115292685600398</v>
+        <v>0.00000000084875997338273</v>
       </c>
       <c r="BG31" t="n">
         <v>2</v>
       </c>
       <c r="BH31" t="n">
-        <v>26.3668076571228</v>
+        <v>23.8068142649882</v>
       </c>
       <c r="BI31" t="n">
         <v>2</v>
       </c>
       <c r="BJ31" t="n">
-        <v>0.00000004794741216105</v>
+        <v>0.0000000263807561633021</v>
       </c>
       <c r="BK31" t="n">
         <v>2</v>
       </c>
       <c r="BL31" t="n">
-        <v>0.00000000178092541425881</v>
+        <v>0.00000000110474047150571</v>
       </c>
       <c r="BM31" t="n">
         <v>2</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.00000000115292685600398</v>
+        <v>0.00000000084875997338273</v>
       </c>
       <c r="BO31" t="n">
         <v>2</v>
       </c>
       <c r="BP31" t="n">
-        <v>0.0000000000153811289326959</v>
+        <v>0.000000000010959893251293</v>
       </c>
       <c r="BQ31" t="n">
         <v>2</v>
       </c>
       <c r="BR31" t="n">
-        <v>43.6760306559356</v>
+        <v>40.290890640442</v>
       </c>
       <c r="BS31" t="n">
         <v>2</v>
@@ -9533,7 +9533,7 @@
         <v>-7.51081069635904</v>
       </c>
       <c r="CQ31" t="n">
-        <v>-73.5879382661688</v>
+        <v>-0.68811182508593</v>
       </c>
     </row>
     <row r="32">
@@ -9673,79 +9673,79 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>23.7808307700299</v>
+        <v>23.7839350852481</v>
       </c>
       <c r="AU32" t="n">
         <v>2</v>
       </c>
       <c r="AV32" t="n">
-        <v>0.00000002674327261574</v>
+        <v>0.0000000267426117670758</v>
       </c>
       <c r="AW32" t="n">
         <v>2</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.00000000112431839341722</v>
+        <v>0.00000000112381025888663</v>
       </c>
       <c r="AY32" t="n">
         <v>2</v>
       </c>
       <c r="AZ32" t="n">
-        <v>0.000000000784197362510751</v>
+        <v>0.000000000784015783535686</v>
       </c>
       <c r="BA32" t="n">
         <v>2</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.0000000000101598965869869</v>
+        <v>0.0000000000101759571677847</v>
       </c>
       <c r="BC32" t="n">
         <v>2</v>
       </c>
       <c r="BD32" t="n">
-        <v>41.5408198292799</v>
+        <v>41.530440618799</v>
       </c>
       <c r="BE32" t="n">
         <v>2</v>
       </c>
       <c r="BF32" t="n">
-        <v>0.00000000115214761692327</v>
+        <v>0.000000000848574020043499</v>
       </c>
       <c r="BG32" t="n">
         <v>2</v>
       </c>
       <c r="BH32" t="n">
-        <v>26.3609182256045</v>
+        <v>23.8058021468331</v>
       </c>
       <c r="BI32" t="n">
         <v>2</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.0000000478982247878548</v>
+        <v>0.0000000263736402053932</v>
       </c>
       <c r="BK32" t="n">
         <v>2</v>
       </c>
       <c r="BL32" t="n">
-        <v>0.00000000177935137912203</v>
+        <v>0.00000000110448959979409</v>
       </c>
       <c r="BM32" t="n">
         <v>2</v>
       </c>
       <c r="BN32" t="n">
-        <v>0.00000000115214761692327</v>
+        <v>0.000000000848574020043499</v>
       </c>
       <c r="BO32" t="n">
         <v>2</v>
       </c>
       <c r="BP32" t="n">
-        <v>0.0000000000153713293428939</v>
+        <v>0.0000000000109584699120633</v>
       </c>
       <c r="BQ32" t="n">
         <v>2</v>
       </c>
       <c r="BR32" t="n">
-        <v>43.6674485645741</v>
+        <v>40.2889413993051</v>
       </c>
       <c r="BS32" t="n">
         <v>2</v>
@@ -9820,7 +9820,7 @@
         <v>-7.54013275443438</v>
       </c>
       <c r="CQ32" t="n">
-        <v>-73.59099786704</v>
+        <v>-0.690650621231123</v>
       </c>
     </row>
     <row r="33">
@@ -9960,79 +9960,79 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>23.7794748401011</v>
+        <v>23.7826163738972</v>
       </c>
       <c r="AU33" t="n">
         <v>2</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.0000000267332027088804</v>
+        <v>0.000000026732533937101</v>
       </c>
       <c r="AW33" t="n">
         <v>2</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.00000000112395771969088</v>
+        <v>0.00000000112344349298108</v>
       </c>
       <c r="AY33" t="n">
         <v>2</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0.000000000784000583480555</v>
+        <v>0.000000000783816827500014</v>
       </c>
       <c r="BA33" t="n">
         <v>2</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.0000000000101584225433052</v>
+        <v>0.0000000000101746756792837</v>
       </c>
       <c r="BC33" t="n">
         <v>2</v>
       </c>
       <c r="BD33" t="n">
-        <v>41.5345110957596</v>
+        <v>41.5240074457722</v>
       </c>
       <c r="BE33" t="n">
         <v>2</v>
       </c>
       <c r="BF33" t="n">
-        <v>0.00000000115117356807625</v>
+        <v>0.000000000848341578370384</v>
       </c>
       <c r="BG33" t="n">
         <v>2</v>
       </c>
       <c r="BH33" t="n">
-        <v>26.353556436236</v>
+        <v>23.8045369991442</v>
       </c>
       <c r="BI33" t="n">
         <v>2</v>
       </c>
       <c r="BJ33" t="n">
-        <v>0.0000000478367405716051</v>
+        <v>0.0000000263647452580425</v>
       </c>
       <c r="BK33" t="n">
         <v>2</v>
       </c>
       <c r="BL33" t="n">
-        <v>0.00000000177738383520887</v>
+        <v>0.00000000110417601015581</v>
       </c>
       <c r="BM33" t="n">
         <v>2</v>
       </c>
       <c r="BN33" t="n">
-        <v>0.00000000115117356807625</v>
+        <v>0.000000000848341578370384</v>
       </c>
       <c r="BO33" t="n">
         <v>2</v>
       </c>
       <c r="BP33" t="n">
-        <v>0.00000000001535907985569</v>
+        <v>0.0000000000109566907380332</v>
       </c>
       <c r="BQ33" t="n">
         <v>2</v>
       </c>
       <c r="BR33" t="n">
-        <v>43.6567209504148</v>
+        <v>40.2865048478936</v>
       </c>
       <c r="BS33" t="n">
         <v>2</v>
@@ -10107,7 +10107,7 @@
         <v>-7.56860107056296</v>
       </c>
       <c r="CQ33" t="n">
-        <v>-73.513918496981</v>
+        <v>-0.693074138050245</v>
       </c>
     </row>
     <row r="34">
@@ -10247,79 +10247,79 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>23.7781189101723</v>
+        <v>23.7812976625463</v>
       </c>
       <c r="AU34" t="n">
         <v>2</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.0000000267231328020209</v>
+        <v>0.0000000267224561071261</v>
       </c>
       <c r="AW34" t="n">
         <v>2</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.00000000112359704596453</v>
+        <v>0.00000000112307672707553</v>
       </c>
       <c r="AY34" t="n">
         <v>2</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0.00000000078380380445036</v>
+        <v>0.000000000783617871464343</v>
       </c>
       <c r="BA34" t="n">
         <v>2</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.0000000000101569484996236</v>
+        <v>0.0000000000101733941907827</v>
       </c>
       <c r="BC34" t="n">
         <v>2</v>
       </c>
       <c r="BD34" t="n">
-        <v>41.5282023622392</v>
+        <v>41.5175742727453</v>
       </c>
       <c r="BE34" t="n">
         <v>2</v>
       </c>
       <c r="BF34" t="n">
-        <v>0.00000000115019951922923</v>
+        <v>0.000000000848109136697269</v>
       </c>
       <c r="BG34" t="n">
         <v>2</v>
       </c>
       <c r="BH34" t="n">
-        <v>26.3461946468674</v>
+        <v>23.8032718514554</v>
       </c>
       <c r="BI34" t="n">
         <v>2</v>
       </c>
       <c r="BJ34" t="n">
-        <v>0.0000000477752563553554</v>
+        <v>0.0000000263558503106917</v>
       </c>
       <c r="BK34" t="n">
         <v>2</v>
       </c>
       <c r="BL34" t="n">
-        <v>0.00000000177541629129571</v>
+        <v>0.00000000110386242051753</v>
       </c>
       <c r="BM34" t="n">
         <v>2</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.00000000115019951922923</v>
+        <v>0.000000000848109136697269</v>
       </c>
       <c r="BO34" t="n">
         <v>2</v>
       </c>
       <c r="BP34" t="n">
-        <v>0.0000000000153468303684861</v>
+        <v>0.0000000000109549115640031</v>
       </c>
       <c r="BQ34" t="n">
         <v>2</v>
       </c>
       <c r="BR34" t="n">
-        <v>43.6459933362555</v>
+        <v>40.284068296482</v>
       </c>
       <c r="BS34" t="n">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>-7.57698336400229</v>
       </c>
       <c r="CQ34" t="n">
-        <v>-73.24188796177</v>
+        <v>-0.693658633839699</v>
       </c>
     </row>
     <row r="35">
@@ -10534,79 +10534,79 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>23.7767629802478</v>
+        <v>23.7799789511996</v>
       </c>
       <c r="AU35" t="n">
         <v>2</v>
       </c>
       <c r="AV35" t="n">
-        <v>0.0000000267130628951934</v>
+        <v>0.0000000267123782771833</v>
       </c>
       <c r="AW35" t="n">
         <v>2</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.00000000112323637223933</v>
+        <v>0.00000000112270996117115</v>
       </c>
       <c r="AY35" t="n">
         <v>2</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0.000000000783607025420789</v>
+        <v>0.000000000783418915429304</v>
       </c>
       <c r="BA35" t="n">
         <v>2</v>
       </c>
       <c r="BB35" t="n">
-        <v>0.0000000000101554744559467</v>
+        <v>0.0000000000101721127022858</v>
       </c>
       <c r="BC35" t="n">
         <v>2</v>
       </c>
       <c r="BD35" t="n">
-        <v>41.5218936287389</v>
+        <v>41.5111410997389</v>
       </c>
       <c r="BE35" t="n">
         <v>2</v>
       </c>
       <c r="BF35" t="n">
-        <v>0.0000000011492254703853</v>
+        <v>0.000000000847876695024893</v>
       </c>
       <c r="BG35" t="n">
         <v>2</v>
       </c>
       <c r="BH35" t="n">
-        <v>26.3388328575223</v>
+        <v>23.8020067037706</v>
       </c>
       <c r="BI35" t="n">
         <v>2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>0.0000000477137721393012</v>
+        <v>0.0000000263469553633692</v>
       </c>
       <c r="BK35" t="n">
         <v>2</v>
       </c>
       <c r="BL35" t="n">
-        <v>0.00000000177344874738881</v>
+        <v>0.00000000110354883088025</v>
       </c>
       <c r="BM35" t="n">
         <v>2</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.0000000011492254703853</v>
+        <v>0.000000000847876695024893</v>
       </c>
       <c r="BO35" t="n">
         <v>2</v>
       </c>
       <c r="BP35" t="n">
-        <v>0.0000000000153345808813212</v>
+        <v>0.0000000000109531323899786</v>
       </c>
       <c r="BQ35" t="n">
         <v>2</v>
       </c>
       <c r="BR35" t="n">
-        <v>43.6352657221303</v>
+        <v>40.2816317450783</v>
       </c>
       <c r="BS35" t="n">
         <v>2</v>
@@ -10681,7 +10681,7 @@
         <v>-7.60503073170079</v>
       </c>
       <c r="CQ35" t="n">
-        <v>-73.1601119651087</v>
+        <v>-0.696043742978457</v>
       </c>
     </row>
     <row r="36">
@@ -10821,79 +10821,79 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>23.7756782363004</v>
+        <v>23.7789239821147</v>
       </c>
       <c r="AU36" t="n">
         <v>2</v>
       </c>
       <c r="AV36" t="n">
-        <v>0.0000000267050069696738</v>
+        <v>0.0000000267043160131714</v>
       </c>
       <c r="AW36" t="n">
         <v>2</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.00000000112294783325711</v>
+        <v>0.00000000112241654844554</v>
       </c>
       <c r="AY36" t="n">
         <v>2</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0.000000000783449602196007</v>
+        <v>0.000000000783259750600134</v>
       </c>
       <c r="BA36" t="n">
         <v>2</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.0000000000101542952209967</v>
+        <v>0.0000000000101710875114809</v>
       </c>
       <c r="BC36" t="n">
         <v>2</v>
       </c>
       <c r="BD36" t="n">
-        <v>41.5168466419026</v>
+        <v>41.5059945612969</v>
       </c>
       <c r="BE36" t="n">
         <v>2</v>
       </c>
       <c r="BF36" t="n">
-        <v>0.00000000114844623130459</v>
+        <v>0.000000000847690741685662</v>
       </c>
       <c r="BG36" t="n">
         <v>2</v>
       </c>
       <c r="BH36" t="n">
-        <v>26.332943426004</v>
+        <v>23.8009945856155</v>
       </c>
       <c r="BI36" t="n">
         <v>2</v>
       </c>
       <c r="BJ36" t="n">
-        <v>0.000000047664584766106</v>
+        <v>0.0000000263398394054603</v>
       </c>
       <c r="BK36" t="n">
         <v>2</v>
       </c>
       <c r="BL36" t="n">
-        <v>0.00000000177187471225202</v>
+        <v>0.00000000110329795916863</v>
       </c>
       <c r="BM36" t="n">
         <v>2</v>
       </c>
       <c r="BN36" t="n">
-        <v>0.00000000114844623130459</v>
+        <v>0.000000000847690741685662</v>
       </c>
       <c r="BO36" t="n">
         <v>2</v>
       </c>
       <c r="BP36" t="n">
-        <v>0.0000000000153247812915192</v>
+        <v>0.0000000000109517090507489</v>
       </c>
       <c r="BQ36" t="n">
         <v>2</v>
       </c>
       <c r="BR36" t="n">
-        <v>43.6266836307687</v>
+        <v>40.2796825039413</v>
       </c>
       <c r="BS36" t="n">
         <v>2</v>
@@ -10968,7 +10968,7 @@
         <v>-7.61516570326872</v>
       </c>
       <c r="CQ36" t="n">
-        <v>-72.9762536906223</v>
+        <v>-0.696825936280032</v>
       </c>
     </row>
     <row r="37">
@@ -11108,79 +11108,79 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>23.7743223063716</v>
+        <v>23.7776052707638</v>
       </c>
       <c r="AU37" t="n">
         <v>2</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.0000000266949370628143</v>
+        <v>0.0000000266942381831965</v>
       </c>
       <c r="AW37" t="n">
         <v>2</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.00000000112258715953077</v>
+        <v>0.00000000112204978253999</v>
       </c>
       <c r="AY37" t="n">
         <v>2</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.000000000783252823165812</v>
+        <v>0.000000000783060794564463</v>
       </c>
       <c r="BA37" t="n">
         <v>2</v>
       </c>
       <c r="BB37" t="n">
-        <v>0.0000000000101528211773151</v>
+        <v>0.0000000000101698060229799</v>
       </c>
       <c r="BC37" t="n">
         <v>2</v>
       </c>
       <c r="BD37" t="n">
-        <v>41.5105379083823</v>
+        <v>41.4995613882701</v>
       </c>
       <c r="BE37" t="n">
         <v>2</v>
       </c>
       <c r="BF37" t="n">
-        <v>0.00000000114747218245757</v>
+        <v>0.000000000847458300012547</v>
       </c>
       <c r="BG37" t="n">
         <v>2</v>
       </c>
       <c r="BH37" t="n">
-        <v>26.3255816366355</v>
+        <v>23.7997294379266</v>
       </c>
       <c r="BI37" t="n">
         <v>2</v>
       </c>
       <c r="BJ37" t="n">
-        <v>0.0000000476031005498563</v>
+        <v>0.0000000263309444581096</v>
       </c>
       <c r="BK37" t="n">
         <v>2</v>
       </c>
       <c r="BL37" t="n">
-        <v>0.00000000176990716833887</v>
+        <v>0.00000000110298436953035</v>
       </c>
       <c r="BM37" t="n">
         <v>2</v>
       </c>
       <c r="BN37" t="n">
-        <v>0.00000000114747218245757</v>
+        <v>0.000000000847458300012547</v>
       </c>
       <c r="BO37" t="n">
         <v>2</v>
       </c>
       <c r="BP37" t="n">
-        <v>0.0000000000153125318043153</v>
+        <v>0.0000000000109499298767188</v>
       </c>
       <c r="BQ37" t="n">
         <v>2</v>
       </c>
       <c r="BR37" t="n">
-        <v>43.6159560166094</v>
+        <v>40.2772459525298</v>
       </c>
       <c r="BS37" t="n">
         <v>2</v>
@@ -11255,7 +11255,7 @@
         <v>-7.64055664392209</v>
       </c>
       <c r="CQ37" t="n">
-        <v>-72.868367113567</v>
+        <v>-0.698968039878041</v>
       </c>
     </row>
     <row r="38">
@@ -11395,79 +11395,79 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>23.7729663764428</v>
+        <v>23.7762865594129</v>
       </c>
       <c r="AU38" t="n">
         <v>2</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.0000000266848671559547</v>
+        <v>0.0000000266841603532217</v>
       </c>
       <c r="AW38" t="n">
         <v>2</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.00000000112222648580442</v>
+        <v>0.00000000112168301663444</v>
       </c>
       <c r="AY38" t="n">
         <v>2</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0.000000000783056044135616</v>
+        <v>0.000000000782861838528791</v>
       </c>
       <c r="BA38" t="n">
         <v>2</v>
       </c>
       <c r="BB38" t="n">
-        <v>0.0000000000101513471336335</v>
+        <v>0.0000000000101685245344789</v>
       </c>
       <c r="BC38" t="n">
         <v>2</v>
       </c>
       <c r="BD38" t="n">
-        <v>41.5042291748619</v>
+        <v>41.4931282152432</v>
       </c>
       <c r="BE38" t="n">
         <v>2</v>
       </c>
       <c r="BF38" t="n">
-        <v>0.00000000114649813361055</v>
+        <v>0.000000000847225858339432</v>
       </c>
       <c r="BG38" t="n">
         <v>2</v>
       </c>
       <c r="BH38" t="n">
-        <v>26.3182198472669</v>
+        <v>23.7984642902378</v>
       </c>
       <c r="BI38" t="n">
         <v>2</v>
       </c>
       <c r="BJ38" t="n">
-        <v>0.0000000475416163336066</v>
+        <v>0.0000000263220495107588</v>
       </c>
       <c r="BK38" t="n">
         <v>2</v>
       </c>
       <c r="BL38" t="n">
-        <v>0.00000000176793962442571</v>
+        <v>0.00000000110267077989207</v>
       </c>
       <c r="BM38" t="n">
         <v>2</v>
       </c>
       <c r="BN38" t="n">
-        <v>0.00000000114649813361055</v>
+        <v>0.000000000847225858339432</v>
       </c>
       <c r="BO38" t="n">
         <v>2</v>
       </c>
       <c r="BP38" t="n">
-        <v>0.0000000000153002823171114</v>
+        <v>0.0000000000109481507026887</v>
       </c>
       <c r="BQ38" t="n">
         <v>2</v>
       </c>
       <c r="BR38" t="n">
-        <v>43.6052284024501</v>
+        <v>40.2748094011183</v>
       </c>
       <c r="BS38" t="n">
         <v>2</v>
@@ -11542,7 +11542,7 @@
         <v>-7.66214162941487</v>
       </c>
       <c r="CQ38" t="n">
-        <v>-72.7238587660378</v>
+        <v>-0.7007620296971</v>
       </c>
     </row>
     <row r="39">
@@ -11682,79 +11682,79 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>23.7716104465183</v>
+        <v>23.7749678480662</v>
       </c>
       <c r="AU39" t="n">
         <v>2</v>
       </c>
       <c r="AV39" t="n">
-        <v>0.0000000266747972491272</v>
+        <v>0.0000000266740825232789</v>
       </c>
       <c r="AW39" t="n">
         <v>2</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.00000000112186581207922</v>
+        <v>0.00000000112131625073006</v>
       </c>
       <c r="AY39" t="n">
         <v>2</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.000000000782859265106046</v>
+        <v>0.000000000782662882493752</v>
       </c>
       <c r="BA39" t="n">
         <v>2</v>
       </c>
       <c r="BB39" t="n">
-        <v>0.0000000000101498730899565</v>
+        <v>0.000000000010167243045982</v>
       </c>
       <c r="BC39" t="n">
         <v>2</v>
       </c>
       <c r="BD39" t="n">
-        <v>41.4979204413616</v>
+        <v>41.4866950422368</v>
       </c>
       <c r="BE39" t="n">
         <v>2</v>
       </c>
       <c r="BF39" t="n">
-        <v>0.00000000114552408476663</v>
+        <v>0.000000000846993416667055</v>
       </c>
       <c r="BG39" t="n">
         <v>2</v>
       </c>
       <c r="BH39" t="n">
-        <v>26.3108580579217</v>
+        <v>23.797199142553</v>
       </c>
       <c r="BI39" t="n">
         <v>2</v>
       </c>
       <c r="BJ39" t="n">
-        <v>0.0000000474801321175524</v>
+        <v>0.0000000263131545634363</v>
       </c>
       <c r="BK39" t="n">
         <v>2</v>
       </c>
       <c r="BL39" t="n">
-        <v>0.00000000176597208051881</v>
+        <v>0.00000000110235719025479</v>
       </c>
       <c r="BM39" t="n">
         <v>2</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.00000000114552408476663</v>
+        <v>0.000000000846993416667055</v>
       </c>
       <c r="BO39" t="n">
         <v>2</v>
       </c>
       <c r="BP39" t="n">
-        <v>0.0000000000152880328299465</v>
+        <v>0.0000000000109463715286642</v>
       </c>
       <c r="BQ39" t="n">
         <v>2</v>
       </c>
       <c r="BR39" t="n">
-        <v>43.5945007883249</v>
+        <v>40.2723728497145</v>
       </c>
       <c r="BS39" t="n">
         <v>2</v>
@@ -11829,7 +11829,7 @@
         <v>-7.69172795350941</v>
       </c>
       <c r="CQ39" t="n">
-        <v>-72.6547809227582</v>
+        <v>-0.703287766915886</v>
       </c>
     </row>
     <row r="40">
@@ -11969,79 +11969,79 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>23.770525702571</v>
+        <v>23.7739128789813</v>
       </c>
       <c r="AU40" t="n">
         <v>2</v>
       </c>
       <c r="AV40" t="n">
-        <v>0.0000000266667413236076</v>
+        <v>0.0000000266660202592669</v>
       </c>
       <c r="AW40" t="n">
         <v>2</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.000000001121577273097</v>
+        <v>0.00000000112102283800446</v>
       </c>
       <c r="AY40" t="n">
         <v>2</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0.000000000782701841881264</v>
+        <v>0.000000000782503717664583</v>
       </c>
       <c r="BA40" t="n">
         <v>2</v>
       </c>
       <c r="BB40" t="n">
-        <v>0.0000000000101486938550066</v>
+        <v>0.0000000000101662178551771</v>
       </c>
       <c r="BC40" t="n">
         <v>2</v>
       </c>
       <c r="BD40" t="n">
-        <v>41.4928734545253</v>
+        <v>41.4815485037949</v>
       </c>
       <c r="BE40" t="n">
         <v>2</v>
       </c>
       <c r="BF40" t="n">
-        <v>0.00000000114474484568591</v>
+        <v>0.000000000846807463327824</v>
       </c>
       <c r="BG40" t="n">
         <v>2</v>
       </c>
       <c r="BH40" t="n">
-        <v>26.3049686264035</v>
+        <v>23.7961870243979</v>
       </c>
       <c r="BI40" t="n">
         <v>2</v>
       </c>
       <c r="BJ40" t="n">
-        <v>0.0000000474309447443572</v>
+        <v>0.0000000263060386055274</v>
       </c>
       <c r="BK40" t="n">
         <v>2</v>
       </c>
       <c r="BL40" t="n">
-        <v>0.00000000176439804538202</v>
+        <v>0.00000000110210631854317</v>
       </c>
       <c r="BM40" t="n">
         <v>2</v>
       </c>
       <c r="BN40" t="n">
-        <v>0.00000000114474484568591</v>
+        <v>0.000000000846807463327824</v>
       </c>
       <c r="BO40" t="n">
         <v>2</v>
       </c>
       <c r="BP40" t="n">
-        <v>0.0000000000152782332401445</v>
+        <v>0.0000000000109449481894345</v>
       </c>
       <c r="BQ40" t="n">
         <v>2</v>
       </c>
       <c r="BR40" t="n">
-        <v>43.5859186969634</v>
+        <v>40.2704236085776</v>
       </c>
       <c r="BS40" t="n">
         <v>2</v>
@@ -12116,7 +12116,7 @@
         <v>-7.70687652761976</v>
       </c>
       <c r="CQ40" t="n">
-        <v>-72.5187156550155</v>
+        <v>-0.704529291175557</v>
       </c>
     </row>
     <row r="41">
@@ -12256,79 +12256,79 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>23.7691697726422</v>
+        <v>23.7725941676304</v>
       </c>
       <c r="AU41" t="n">
         <v>2</v>
       </c>
       <c r="AV41" t="n">
-        <v>0.0000000266566714167481</v>
+        <v>0.0000000266559424292921</v>
       </c>
       <c r="AW41" t="n">
         <v>2</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.00000000112121659937065</v>
+        <v>0.00000000112065607209891</v>
       </c>
       <c r="AY41" t="n">
         <v>2</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0.000000000782505062851068</v>
+        <v>0.000000000782304761628911</v>
       </c>
       <c r="BA41" t="n">
         <v>2</v>
       </c>
       <c r="BB41" t="n">
-        <v>0.0000000000101472198113249</v>
+        <v>0.0000000000101649363666761</v>
       </c>
       <c r="BC41" t="n">
         <v>2</v>
       </c>
       <c r="BD41" t="n">
-        <v>41.4865647210049</v>
+        <v>41.475115330768</v>
       </c>
       <c r="BE41" t="n">
         <v>2</v>
       </c>
       <c r="BF41" t="n">
-        <v>0.00000000114377079683889</v>
+        <v>0.000000000846575021654709</v>
       </c>
       <c r="BG41" t="n">
         <v>2</v>
       </c>
       <c r="BH41" t="n">
-        <v>26.2976068370349</v>
+        <v>23.794921876709</v>
       </c>
       <c r="BI41" t="n">
         <v>2</v>
       </c>
       <c r="BJ41" t="n">
-        <v>0.0000000473694605281075</v>
+        <v>0.0000000262971436581767</v>
       </c>
       <c r="BK41" t="n">
         <v>2</v>
       </c>
       <c r="BL41" t="n">
-        <v>0.00000000176243050146887</v>
+        <v>0.00000000110179272890489</v>
       </c>
       <c r="BM41" t="n">
         <v>2</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.00000000114377079683889</v>
+        <v>0.000000000846575021654709</v>
       </c>
       <c r="BO41" t="n">
         <v>2</v>
       </c>
       <c r="BP41" t="n">
-        <v>0.0000000000152659837529406</v>
+        <v>0.0000000000109431690154044</v>
       </c>
       <c r="BQ41" t="n">
         <v>2</v>
       </c>
       <c r="BR41" t="n">
-        <v>43.5751910828041</v>
+        <v>40.267987057166</v>
       </c>
       <c r="BS41" t="n">
         <v>2</v>
@@ -12403,7 +12403,7 @@
         <v>-7.72485099219695</v>
       </c>
       <c r="CQ41" t="n">
-        <v>-72.3397157542079</v>
+        <v>-0.705993592767885</v>
       </c>
     </row>
     <row r="42">
@@ -12543,79 +12543,79 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>23.7678138427177</v>
+        <v>23.7712754562836</v>
       </c>
       <c r="AU42" t="n">
         <v>2</v>
       </c>
       <c r="AV42" t="n">
-        <v>0.0000000266466015099205</v>
+        <v>0.0000000266458645993493</v>
       </c>
       <c r="AW42" t="n">
         <v>2</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.00000000112085592564545</v>
+        <v>0.00000000112028930619453</v>
       </c>
       <c r="AY42" t="n">
         <v>2</v>
       </c>
       <c r="AZ42" t="n">
-        <v>0.000000000782308283821498</v>
+        <v>0.000000000782105805593872</v>
       </c>
       <c r="BA42" t="n">
         <v>2</v>
       </c>
       <c r="BB42" t="n">
-        <v>0.000000000010145745767648</v>
+        <v>0.0000000000101636548781792</v>
       </c>
       <c r="BC42" t="n">
         <v>2</v>
       </c>
       <c r="BD42" t="n">
-        <v>41.4802559875046</v>
+        <v>41.4686821577616</v>
       </c>
       <c r="BE42" t="n">
         <v>2</v>
       </c>
       <c r="BF42" t="n">
-        <v>0.00000000114279674799497</v>
+        <v>0.000000000846342579982333</v>
       </c>
       <c r="BG42" t="n">
         <v>2</v>
       </c>
       <c r="BH42" t="n">
-        <v>26.2902450476898</v>
+        <v>23.7936567290242</v>
       </c>
       <c r="BI42" t="n">
         <v>2</v>
       </c>
       <c r="BJ42" t="n">
-        <v>0.0000000473079763120532</v>
+        <v>0.0000000262882487108542</v>
       </c>
       <c r="BK42" t="n">
         <v>2</v>
       </c>
       <c r="BL42" t="n">
-        <v>0.00000000176046295756196</v>
+        <v>0.00000000110147913926761</v>
       </c>
       <c r="BM42" t="n">
         <v>2</v>
       </c>
       <c r="BN42" t="n">
-        <v>0.00000000114279674799497</v>
+        <v>0.000000000846342579982333</v>
       </c>
       <c r="BO42" t="n">
         <v>2</v>
       </c>
       <c r="BP42" t="n">
-        <v>0.0000000000152537342657757</v>
+        <v>0.0000000000109413898413799</v>
       </c>
       <c r="BQ42" t="n">
         <v>2</v>
       </c>
       <c r="BR42" t="n">
-        <v>43.5644634686789</v>
+        <v>40.2655505057623</v>
       </c>
       <c r="BS42" t="n">
         <v>2</v>
@@ -12690,7 +12690,7 @@
         <v>-7.74672779986918</v>
       </c>
       <c r="CQ42" t="n">
-        <v>-72.1972620558232</v>
+        <v>-0.707814768109692</v>
       </c>
     </row>
   </sheetData>
